--- a/templates/template_3.xlsx
+++ b/templates/template_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="836"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Deposits-LCY" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="Monthly Deposits by Currency" sheetId="4" r:id="rId4"/>
     <sheet name="MONTHLY PRODUCT TYPE" sheetId="5" r:id="rId5"/>
     <sheet name="Quarterly Report " sheetId="6" r:id="rId6"/>
-    <sheet name="Register of Depositor&amp; Deposit" sheetId="7" r:id="rId7"/>
-    <sheet name="CHA" sheetId="8" r:id="rId8"/>
+    <sheet name="Register of eligible Depositors" sheetId="7" r:id="rId7"/>
+    <sheet name="CHA" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="Register of Eligible Deposits" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CHA!$AK$2:$AO$10</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="122">
   <si>
     <t>BANK NAME:  COGEBANQUE</t>
   </si>
@@ -301,9 +302,6 @@
     <t>LIST OF N° of deposit(s)s per Depositor(s)</t>
   </si>
   <si>
-    <t>Name(s)of deposit holder(s) for joint deposit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Percentage(%) of share in  joint deposit(s) </t>
   </si>
   <si>
@@ -395,6 +393,9 @@
   </si>
   <si>
     <t xml:space="preserve">Date: </t>
+  </si>
+  <si>
+    <t>Name(s) of deposit holder(s) for joint deposit</t>
   </si>
 </sst>
 </file>
@@ -406,7 +407,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -418,51 +419,60 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -470,6 +480,26 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -519,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -582,17 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -636,11 +655,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -903,42 +950,44 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -946,9 +995,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1261,7 +1307,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,7 +1351,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
       <c r="B4" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="79"/>
@@ -1609,7 +1655,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
       <c r="B26" s="76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="79"/>
@@ -1649,7 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2791,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,22 +2939,22 @@
       <c r="A9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="123" t="s">
+      <c r="C9" s="123"/>
+      <c r="D9" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="124"/>
-      <c r="F9" s="123" t="s">
+      <c r="E9" s="123"/>
+      <c r="F9" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="123" t="s">
+      <c r="G9" s="123"/>
+      <c r="H9" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="124"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="11"/>
       <c r="K9" s="57"/>
     </row>
@@ -2916,14 +2962,14 @@
       <c r="A10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3727,66 +3773,136 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="104" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="104" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="104" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="104" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="104" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="104" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="104" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="104" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="104" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="104" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="104" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="104" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="104" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="104" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="110" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="110" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="110" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="110" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="110" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="110" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="110" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="110" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="110" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="110" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="110" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="110" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="110" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="110" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="103"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+    </row>
+    <row r="2" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="102"/>
       <c r="C2" s="103"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+    </row>
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="102"/>
       <c r="C3" s="103"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+    </row>
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="str">
         <f>'Monthly Deposits-LCY'!B4</f>
         <v>REPORT AS AT …</v>
       </c>
       <c r="B4" s="102"/>
       <c r="C4" s="103"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+    </row>
+    <row r="5" spans="1:14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="105"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+    </row>
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="106"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="106" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+    </row>
+    <row r="7" spans="1:14" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>75</v>
       </c>
@@ -3826,8 +3942,9 @@
       <c r="M7" s="108" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="104"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="109"/>
       <c r="B8" s="109"/>
       <c r="C8" s="109"/>
@@ -3842,7 +3959,7 @@
       <c r="L8" s="109"/>
       <c r="M8" s="109"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="109"/>
       <c r="B9" s="109"/>
       <c r="C9" s="109"/>
@@ -3857,7 +3974,7 @@
       <c r="L9" s="109"/>
       <c r="M9" s="109"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="109"/>
       <c r="B10" s="109"/>
       <c r="C10" s="109"/>
@@ -3872,7 +3989,7 @@
       <c r="L10" s="109"/>
       <c r="M10" s="109"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="109"/>
       <c r="B11" s="109"/>
       <c r="C11" s="109"/>
@@ -3887,7 +4004,7 @@
       <c r="L11" s="109"/>
       <c r="M11" s="109"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="109"/>
       <c r="B12" s="109"/>
       <c r="C12" s="109"/>
@@ -3902,7 +4019,7 @@
       <c r="L12" s="109"/>
       <c r="M12" s="109"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="109"/>
       <c r="B13" s="109"/>
       <c r="C13" s="109"/>
@@ -3917,332 +4034,142 @@
       <c r="L13" s="109"/>
       <c r="M13" s="109"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="112"/>
       <c r="D17" s="112"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="112"/>
-      <c r="D18" s="106" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="102" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="113" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="115" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="114" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="114" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="118">
-        <v>0</v>
-      </c>
-      <c r="H20" s="118">
-        <v>0</v>
-      </c>
-      <c r="I20" s="118">
-        <f t="shared" ref="I20:I27" si="0">G20+H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="119">
-        <f t="shared" ref="K20:K27" si="1">I20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="118">
-        <v>0</v>
-      </c>
-      <c r="H21" s="118">
-        <v>0</v>
-      </c>
-      <c r="I21" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="117"/>
-      <c r="K21" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="118">
-        <v>0</v>
-      </c>
-      <c r="H22" s="118">
-        <v>0</v>
-      </c>
-      <c r="I22" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="117"/>
-      <c r="K22" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="118">
-        <v>0</v>
-      </c>
-      <c r="H23" s="118">
-        <v>0</v>
-      </c>
-      <c r="I23" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="117"/>
-      <c r="K23" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="118">
-        <v>0</v>
-      </c>
-      <c r="H24" s="118">
-        <v>0</v>
-      </c>
-      <c r="I24" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="117"/>
-      <c r="K24" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="118">
-        <v>0</v>
-      </c>
-      <c r="H25" s="118">
-        <v>0</v>
-      </c>
-      <c r="I25" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="117"/>
-      <c r="K25" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="118">
-        <v>0</v>
-      </c>
-      <c r="H26" s="118">
-        <v>0</v>
-      </c>
-      <c r="I26" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="117"/>
-      <c r="K26" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="118">
-        <v>0</v>
-      </c>
-      <c r="H27" s="118">
-        <v>0</v>
-      </c>
-      <c r="I27" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="117"/>
-      <c r="K27" s="119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="102" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="113" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="121">
-        <f>SUM(G20:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="121">
-        <f>SUM(H20:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="121">
-        <f>SUM(I20:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="120"/>
-      <c r="K28" s="122">
-        <f>SUM(K20:K27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
+      <c r="D18" s="120"/>
+    </row>
+    <row r="19" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="112"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="K20" s="118"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="112"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="K21" s="118"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="112"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="K22" s="118"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="112"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="K23" s="118"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="112"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="K24" s="118"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="112"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="K25" s="118"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="112"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="K26" s="118"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="112"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="K27" s="118"/>
+    </row>
+    <row r="28" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="112"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="K28" s="118"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="112"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4250,7 +4177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView topLeftCell="S222" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AA232" sqref="AA232"/>
     </sheetView>
   </sheetViews>
@@ -4294,183 +4221,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="127" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="F1" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="F1" s="128" t="s">
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="M1" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="M1" s="128" t="s">
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="S1" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="S1" s="128" t="s">
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="Y1" s="127" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="Y1" s="128" t="s">
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AE1" s="127" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="128"/>
-      <c r="AE1" s="128" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF1" s="128"/>
-      <c r="AG1" s="128"/>
-      <c r="AH1" s="128"/>
-      <c r="AI1" s="128"/>
-      <c r="AK1" s="128" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL1" s="128"/>
-      <c r="AM1" s="128"/>
-      <c r="AN1" s="128"/>
-      <c r="AO1" s="128"/>
-      <c r="AQ1" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR1" s="127"/>
-      <c r="AS1" s="127"/>
-      <c r="AT1" s="127"/>
-      <c r="AU1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="127"/>
+      <c r="AI1" s="127"/>
+      <c r="AK1" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="127"/>
+      <c r="AQ1" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="C2" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="D2" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="F2" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="G2" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="I2" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="V2" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="W2" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y2" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z2" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA2" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE2" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF2" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG2" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH2" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI2" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK2" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL2" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM2" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN2" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO2" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ2" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR2" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS2" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT2" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="S2" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="T2" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="U2" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="V2" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y2" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z2" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA2" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB2" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC2" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE2" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF2" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG2" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH2" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI2" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK2" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL2" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM2" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN2" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO2" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ2" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR2" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS2" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT2" s="70" t="s">
+      <c r="AU2" s="70" t="s">
         <v>107</v>
-      </c>
-      <c r="AU2" s="70" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4489,4 +4416,332 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="str">
+        <f>'Monthly Deposits-LCY'!B4</f>
+        <v>REPORT AS AT …</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="113"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+    </row>
+    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="115" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="112"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="118">
+        <v>0</v>
+      </c>
+      <c r="H10" s="118">
+        <v>0</v>
+      </c>
+      <c r="I10" s="118">
+        <f t="shared" ref="I10:I17" si="0">G10+H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="118">
+        <f t="shared" ref="K10:K17" si="1">I10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="112"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="118">
+        <v>0</v>
+      </c>
+      <c r="H11" s="118">
+        <v>0</v>
+      </c>
+      <c r="I11" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="110"/>
+      <c r="K11" s="118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="112"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="118">
+        <v>0</v>
+      </c>
+      <c r="H12" s="118">
+        <v>0</v>
+      </c>
+      <c r="I12" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="110"/>
+      <c r="K12" s="118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="112"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="118">
+        <v>0</v>
+      </c>
+      <c r="H13" s="118">
+        <v>0</v>
+      </c>
+      <c r="I13" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="110"/>
+      <c r="K13" s="118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="112"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="118">
+        <v>0</v>
+      </c>
+      <c r="H14" s="118">
+        <v>0</v>
+      </c>
+      <c r="I14" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="110"/>
+      <c r="K14" s="118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="112"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="118">
+        <v>0</v>
+      </c>
+      <c r="H15" s="118">
+        <v>0</v>
+      </c>
+      <c r="I15" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="110"/>
+      <c r="K15" s="118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="112"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="118">
+        <v>0</v>
+      </c>
+      <c r="H16" s="118">
+        <v>0</v>
+      </c>
+      <c r="I16" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="110"/>
+      <c r="K16" s="118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="112"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="118">
+        <v>0</v>
+      </c>
+      <c r="H17" s="118">
+        <v>0</v>
+      </c>
+      <c r="I17" s="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="110"/>
+      <c r="K17" s="118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="119">
+        <f>SUM(G10:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="119">
+        <f>SUM(H10:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="119">
+        <f>SUM(I10:I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="117"/>
+      <c r="K18" s="119">
+        <f>SUM(K10:K17)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>